--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_random2_linprog_2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_random2_linprog_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -447,12 +444,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -482,7 +479,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -619,19 +616,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,16 +780,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,16 +1003,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,40 +1330,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,13 +1371,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1397,16 +1394,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1420,16 +1417,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1446,13 +1443,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>22</v>
@@ -1469,16 +1466,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1492,16 +1489,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1518,7 +1515,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1532,7 +1529,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1546,7 +1543,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1560,7 +1557,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1574,7 +1571,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1588,7 +1585,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1602,7 +1599,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2564,16 +2561,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,21 +2583,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2608,13 +2599,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2622,13 +2610,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2636,13 +2621,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2650,111 +2632,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2762,13 +2720,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2776,13 +2731,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2790,13 +2742,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2804,13 +2753,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2818,13 +2764,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2832,13 +2775,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2846,13 +2786,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2860,13 +2797,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2903,20 +2837,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2927,7 +2861,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2938,7 +2872,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2949,7 +2883,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2960,7 +2894,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2971,7 +2905,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2982,7 +2916,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2993,7 +2927,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -3004,7 +2938,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -3015,7 +2949,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -3026,7 +2960,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -3037,7 +2971,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -3048,7 +2982,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3181,7 +3115,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,7 +3247,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,13 +3379,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,13 +3560,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_random2_linprog_2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_random2_linprog_2.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -603,170 +602,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">ABS(0.15*B2)</f>
-        <v>3.30223981095625</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">ABS(0.15*D2)</f>
-        <v>3.30223981095625</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">ABS(0.15*B3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">ABS(0.15*D3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">ABS(0.15*B4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">ABS(0.15*D4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">ABS(0.15*B5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">ABS(0.15*D5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">ABS(0.15*B6)</f>
-        <v>1.02729844988458</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">ABS(0.15*D6)</f>
-        <v>1.02729844988458</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">ABS(0.15*B7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">ABS(0.15*D7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -985,7 +820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1306,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2563,7 +2398,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3005,9 +2840,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3018,72 +2853,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3234,138 +3104,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3542,7 +3280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3798,4 +3536,168 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">ABS(0.15*D2)</f>
+        <v>3.30223981095625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">ABS(0.15*D3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">ABS(0.15*D4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">ABS(0.15*D5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">ABS(0.15*D6)</f>
+        <v>1.02729844988458</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">ABS(0.15*D7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_random2_linprog_2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_random2_linprog_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">linprog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -349,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -379,6 +388,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,7 +446,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +457,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -478,8 +502,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -527,64 +551,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -605,7 +643,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -615,21 +653,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -643,7 +681,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -657,7 +695,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -671,7 +709,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -685,7 +723,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -699,7 +737,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -713,7 +751,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -727,7 +765,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -741,7 +779,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -755,7 +793,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -769,7 +807,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -783,7 +821,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -797,7 +835,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -828,7 +866,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,21 +876,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -866,7 +904,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -880,7 +918,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -894,7 +932,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -908,7 +946,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -922,7 +960,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -936,7 +974,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -950,7 +988,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -964,7 +1002,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -978,7 +1016,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -992,7 +1030,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1006,7 +1044,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1020,7 +1058,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1034,7 +1072,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1048,7 +1086,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1062,7 +1100,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1076,7 +1114,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1090,7 +1128,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1104,7 +1142,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1118,7 +1156,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1149,7 +1187,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1165,57 +1203,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1226,19 +1264,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1249,22 +1287,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1275,19 +1313,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1298,19 +1336,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1321,22 +1359,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1347,10 +1385,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1361,10 +1399,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1375,10 +1413,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1389,10 +1427,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1403,10 +1441,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1417,10 +1455,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1431,10 +1469,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1462,7 +1500,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1472,72 +1510,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1602,7 +1640,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1667,7 +1705,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1732,7 +1770,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1797,7 +1835,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1862,7 +1900,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1927,7 +1965,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1992,7 +2030,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2057,7 +2095,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2122,7 +2160,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2187,7 +2225,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2252,7 +2290,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2317,7 +2355,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2399,7 +2437,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2410,21 +2448,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2432,10 +2470,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2443,10 +2481,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2454,10 +2492,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2465,10 +2503,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2476,10 +2514,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2487,10 +2525,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2498,10 +2536,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2509,10 +2547,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2520,10 +2558,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2531,10 +2569,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2542,10 +2580,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2553,10 +2591,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2564,10 +2602,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2575,10 +2613,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2586,10 +2624,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2597,10 +2635,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2608,10 +2646,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2619,10 +2657,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2630,10 +2668,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2658,7 +2696,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="1" sqref="A6:B7 H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2669,24 +2707,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2694,10 +2732,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2705,10 +2743,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2716,10 +2754,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2727,10 +2765,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2738,10 +2776,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2749,10 +2787,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2760,10 +2798,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2771,10 +2809,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2782,10 +2820,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2793,10 +2831,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2804,10 +2842,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2815,10 +2853,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2842,8 +2880,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2853,107 +2891,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +3013,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2985,107 +3023,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3145,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3117,18 +3155,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3139,7 +3177,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3150,7 +3188,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3161,7 +3199,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3172,7 +3210,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3183,7 +3221,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3194,7 +3232,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3205,7 +3243,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3216,7 +3254,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3227,7 +3265,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3238,7 +3276,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3249,7 +3287,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3260,7 +3298,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3288,7 +3326,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3298,18 +3336,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3320,7 +3358,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3331,7 +3369,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3342,7 +3380,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3353,7 +3391,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3364,7 +3402,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3375,7 +3413,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3386,7 +3424,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3397,7 +3435,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3408,7 +3446,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3419,7 +3457,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3430,7 +3468,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3441,7 +3479,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3452,7 +3490,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3463,7 +3501,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3474,7 +3512,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3485,7 +3523,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3496,7 +3534,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3507,7 +3545,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3518,7 +3556,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3546,7 +3584,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A6:B7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3556,24 +3594,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3592,7 +3630,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3611,7 +3649,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3630,7 +3668,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3649,7 +3687,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3668,7 +3706,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
